--- a/data/Course Booklet 2019/DS_PG_Curriculum.xlsx
+++ b/data/Course Booklet 2019/DS_PG_Curriculum.xlsx
@@ -35,16 +35,16 @@
     <t>Global Remarks</t>
   </si>
   <si>
+    <t>DS7010</t>
+  </si>
+  <si>
+    <t>Design Research</t>
+  </si>
+  <si>
     <t>CA1024</t>
   </si>
   <si>
-    <t>DS7010</t>
-  </si>
-  <si>
     <t>Action Drawing</t>
-  </si>
-  <si>
-    <t>Design Research</t>
   </si>
   <si>
     <t>DS7024</t>
@@ -398,10 +398,10 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
@@ -7986,10 +7986,10 @@
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>3.0</v>
